--- a/Expedia Templates/BMC/BMC2/IMPORT remove old Promotions.xlsx
+++ b/Expedia Templates/BMC/BMC2/IMPORT remove old Promotions.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\github-repositories\core_ota\Expedia Templates\BMC\BMC2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/Expedia Templates/BMC/BMC2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BB4391-54DC-4EDE-9807-402F9FE64342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9211883-0B5F-9344-AE80-CFB3D1EDBEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="4560" windowWidth="25755" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="4560" windowWidth="25760" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Promotions and Rate Plans" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Promotions and Rate Plans'!$B$1:$D$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Promotions and Rate Plans'!$B$1:$C$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -44,16 +44,10 @@
     <t>Rule ID</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Action Type</t>
   </si>
   <si>
-    <t>Update</t>
-  </si>
-  <si>
-    <t>Paused</t>
+    <t>Delete</t>
   </si>
 </sst>
 </file>
@@ -115,9 +109,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -155,7 +149,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -261,7 +255,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -403,7 +397,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -411,23 +405,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -435,13 +428,10 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>123</v>
@@ -449,12 +439,9 @@
       <c r="C2">
         <v>123</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:D103" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:C103" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>